--- a/Schedule/mlg_05_schedule_090619.xlsx
+++ b/Schedule/mlg_05_schedule_090619.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rvanniekerk/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rvanniekerk/Documents/GitLab_Repos/mlg-05-us/Schedule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC22317-21D6-A248-9F14-D6AAEF13A33C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC56231-9B7C-2F4A-A694-2CE8B99B03C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="24000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mlg05 schedule_mod_0809" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'mlg05 schedule_mod_0809'!$A$3:$H$60</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -602,13 +602,28 @@
     <xf numFmtId="18" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -620,28 +635,13 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -958,13 +958,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P62"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="9" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -982,28 +982,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
     </row>
     <row r="2" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -1035,16 +1035,16 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="56"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="50"/>
       <c r="I4" s="40"/>
     </row>
     <row r="5" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -1073,16 +1073,16 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="48"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="53"/>
       <c r="I6" s="40"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1096,10 +1096,10 @@
         <v>0.375</v>
       </c>
       <c r="D7" s="7">
-        <v>0.38541666666666669</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
         <v>17</v>
@@ -1343,16 +1343,16 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="51"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="47"/>
       <c r="I16" s="41"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1367,16 +1367,16 @@
       <c r="I17" s="42"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="48"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="53"/>
       <c r="I18" s="41"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1581,16 +1581,16 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="49" t="s">
+      <c r="A26" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="51"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="47"/>
       <c r="I26" s="41"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -1605,16 +1605,16 @@
       <c r="I27" s="42"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="46" t="s">
+      <c r="A28" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="48"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="53"/>
       <c r="I28" s="41"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -1900,29 +1900,29 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="49" t="s">
+      <c r="A39" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="50"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="50"/>
-      <c r="G39" s="50"/>
-      <c r="H39" s="51"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="47"/>
       <c r="I39" s="41"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="46" t="s">
+      <c r="A40" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="47"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="48"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="53"/>
       <c r="I40" s="40"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -2181,16 +2181,16 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="49" t="s">
+      <c r="A50" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="B50" s="50"/>
-      <c r="C50" s="50"/>
-      <c r="D50" s="50"/>
-      <c r="E50" s="50"/>
-      <c r="F50" s="50"/>
-      <c r="G50" s="50"/>
-      <c r="H50" s="51"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="47"/>
       <c r="I50" s="3"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -2205,16 +2205,16 @@
       <c r="I51" s="10"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="43" t="s">
+      <c r="A52" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="B52" s="44"/>
-      <c r="C52" s="44"/>
-      <c r="D52" s="44"/>
-      <c r="E52" s="44"/>
-      <c r="F52" s="44"/>
-      <c r="G52" s="44"/>
-      <c r="H52" s="45"/>
+      <c r="B52" s="55"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="55"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="56"/>
       <c r="I52" s="17"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -2407,16 +2407,16 @@
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="43" t="s">
+      <c r="A60" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="B60" s="44"/>
-      <c r="C60" s="44"/>
-      <c r="D60" s="44"/>
-      <c r="E60" s="44"/>
-      <c r="F60" s="44"/>
-      <c r="G60" s="44"/>
-      <c r="H60" s="45"/>
+      <c r="B60" s="55"/>
+      <c r="C60" s="55"/>
+      <c r="D60" s="55"/>
+      <c r="E60" s="55"/>
+      <c r="F60" s="55"/>
+      <c r="G60" s="55"/>
+      <c r="H60" s="56"/>
       <c r="I60" s="22"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
@@ -2425,11 +2425,6 @@
   </sheetData>
   <autoFilter ref="A3:H60" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="12">
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A52:H52"/>
     <mergeCell ref="A60:H60"/>
     <mergeCell ref="A18:H18"/>
     <mergeCell ref="A26:H26"/>
@@ -2437,27 +2432,17 @@
     <mergeCell ref="A39:H39"/>
     <mergeCell ref="A40:H40"/>
     <mergeCell ref="A50:H50"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A52:H52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002CFA2B233742F64E8056EBCE33A21C00" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9b5b91389c05eb979bd0038ae0792781">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -2571,10 +2556,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0A9C92A-76ED-4D1D-B2EC-9C2252A82F94}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04CD0CE7-FD41-4D9B-9D66-1156C08293BB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2595,17 +2603,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04CD0CE7-FD41-4D9B-9D66-1156C08293BB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0A9C92A-76ED-4D1D-B2EC-9C2252A82F94}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Schedule/mlg_05_schedule_090619.xlsx
+++ b/Schedule/mlg_05_schedule_090619.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rvanniekerk/Documents/GitLab_Repos/mlg-05-us/Schedule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC56231-9B7C-2F4A-A694-2CE8B99B03C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9200DDB5-6D83-BD4D-A930-55AC0A5F4DB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -319,7 +319,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -368,21 +368,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE5E0EC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDBEEF3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2DCDB"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="15">
     <border>
@@ -552,7 +537,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -578,8 +563,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="18" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="18" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -587,8 +570,6 @@
     <xf numFmtId="18" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="18" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="18" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -602,28 +583,13 @@
     <xf numFmtId="18" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -635,15 +601,32 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -964,7 +947,7 @@
       <pane xSplit="9" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="G54" sqref="G54:G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -982,28 +965,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
     </row>
     <row r="2" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -1035,17 +1018,17 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="40"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="36"/>
     </row>
     <row r="5" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
@@ -1068,22 +1051,22 @@
         <v>14</v>
       </c>
       <c r="H5" s="6"/>
-      <c r="I5" s="40">
+      <c r="I5" s="36">
         <v>1043</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="40"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="36"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
@@ -1110,7 +1093,7 @@
       <c r="H7" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="I7" s="40">
+      <c r="I7" s="36">
         <v>1043</v>
       </c>
     </row>
@@ -1139,7 +1122,7 @@
       <c r="H8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="40">
+      <c r="I8" s="36">
         <v>1043</v>
       </c>
     </row>
@@ -1168,7 +1151,7 @@
       <c r="H9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="40">
+      <c r="I9" s="36">
         <v>1043</v>
       </c>
     </row>
@@ -1197,7 +1180,7 @@
       <c r="H10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="40"/>
+      <c r="I10" s="36"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
@@ -1224,7 +1207,7 @@
       <c r="H11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="40">
+      <c r="I11" s="36">
         <v>1043</v>
       </c>
     </row>
@@ -1253,7 +1236,7 @@
       <c r="H12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="40">
+      <c r="I12" s="36">
         <v>1043</v>
       </c>
     </row>
@@ -1282,7 +1265,7 @@
       <c r="H13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="40">
+      <c r="I13" s="36">
         <v>1043</v>
       </c>
     </row>
@@ -1311,7 +1294,7 @@
       <c r="H14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="40"/>
+      <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
@@ -1338,7 +1321,7 @@
       <c r="H15" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="40">
+      <c r="I15" s="36">
         <v>1043</v>
       </c>
     </row>
@@ -1353,7 +1336,7 @@
       <c r="F16" s="46"/>
       <c r="G16" s="46"/>
       <c r="H16" s="47"/>
-      <c r="I16" s="41"/>
+      <c r="I16" s="37"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
@@ -1364,20 +1347,20 @@
       <c r="F17" s="12"/>
       <c r="G17" s="13"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="42"/>
+      <c r="I17" s="38"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="51" t="s">
+      <c r="A18" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="41"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="37"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
@@ -1404,7 +1387,7 @@
       <c r="H19" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="40">
+      <c r="I19" s="36">
         <v>1043</v>
       </c>
     </row>
@@ -1433,7 +1416,7 @@
       <c r="H20" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I20" s="40">
+      <c r="I20" s="36">
         <v>1043</v>
       </c>
     </row>
@@ -1462,7 +1445,7 @@
       <c r="H21" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I21" s="40">
+      <c r="I21" s="36">
         <v>1043</v>
       </c>
     </row>
@@ -1491,7 +1474,7 @@
       <c r="H22" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I22" s="40"/>
+      <c r="I22" s="36"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
@@ -1518,7 +1501,7 @@
       <c r="H23" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="40">
+      <c r="I23" s="36">
         <v>1043</v>
       </c>
     </row>
@@ -1547,7 +1530,7 @@
       <c r="H24" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I24" s="40">
+      <c r="I24" s="36">
         <v>1043</v>
       </c>
     </row>
@@ -1576,7 +1559,7 @@
       <c r="H25" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="40">
+      <c r="I25" s="36">
         <v>1043</v>
       </c>
     </row>
@@ -1591,7 +1574,7 @@
       <c r="F26" s="46"/>
       <c r="G26" s="46"/>
       <c r="H26" s="47"/>
-      <c r="I26" s="41"/>
+      <c r="I26" s="37"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="11"/>
@@ -1602,47 +1585,47 @@
       <c r="F27" s="12"/>
       <c r="G27" s="13"/>
       <c r="H27" s="14"/>
-      <c r="I27" s="42"/>
+      <c r="I27" s="38"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="51" t="s">
+      <c r="A28" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="52"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="41"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="37"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="28">
+      <c r="A29" s="26">
         <v>43733</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="30">
+      <c r="C29" s="28">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D29" s="30">
+      <c r="D29" s="28">
         <v>0.35416666666666669</v>
       </c>
-      <c r="E29" s="30" t="s">
+      <c r="E29" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="29" t="s">
+      <c r="F29" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="G29" s="30" t="s">
+      <c r="G29" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="H29" s="31" t="s">
+      <c r="H29" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="I29" s="40">
+      <c r="I29" s="36">
         <v>1043</v>
       </c>
     </row>
@@ -1650,7 +1633,7 @@
       <c r="A30" s="4">
         <v>43733</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="30" t="s">
         <v>49</v>
       </c>
       <c r="C30" s="24">
@@ -1662,16 +1645,16 @@
       <c r="E30" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="32" t="s">
+      <c r="F30" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="G30" s="35" t="s">
+      <c r="G30" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="H30" s="27" t="s">
+      <c r="H30" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I30" s="40">
+      <c r="I30" s="36">
         <v>1043</v>
       </c>
     </row>
@@ -1679,7 +1662,7 @@
       <c r="A31" s="4">
         <v>43733</v>
       </c>
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="30" t="s">
         <v>49</v>
       </c>
       <c r="C31" s="24">
@@ -1691,22 +1674,22 @@
       <c r="E31" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="33" t="s">
+      <c r="F31" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="G31" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I31" s="40"/>
+      <c r="G31" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="36"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>43733</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="30" t="s">
         <v>49</v>
       </c>
       <c r="C32" s="24">
@@ -1718,16 +1701,16 @@
       <c r="E32" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F32" s="32" t="s">
+      <c r="F32" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="G32" s="24" t="s">
+      <c r="G32" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H32" s="8" t="s">
+      <c r="H32" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="I32" s="40">
+      <c r="I32" s="36">
         <v>1043</v>
       </c>
     </row>
@@ -1735,7 +1718,7 @@
       <c r="A33" s="4">
         <v>43733</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="30" t="s">
         <v>49</v>
       </c>
       <c r="C33" s="24">
@@ -1747,16 +1730,16 @@
       <c r="E33" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="F33" s="32" t="s">
+      <c r="F33" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="G33" s="37" t="s">
+      <c r="G33" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="H33" s="26" t="s">
+      <c r="H33" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I33" s="40">
+      <c r="I33" s="36">
         <v>1043</v>
       </c>
     </row>
@@ -1764,7 +1747,7 @@
       <c r="A34" s="4">
         <v>43733</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="30" t="s">
         <v>49</v>
       </c>
       <c r="C34" s="24">
@@ -1776,22 +1759,22 @@
       <c r="E34" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F34" s="33" t="s">
+      <c r="F34" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="G34" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I34" s="40"/>
+      <c r="G34" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" s="36"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>43733</v>
       </c>
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="30" t="s">
         <v>49</v>
       </c>
       <c r="C35" s="24">
@@ -1803,16 +1786,16 @@
       <c r="E35" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="F35" s="32" t="s">
+      <c r="F35" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="G35" s="35" t="s">
+      <c r="G35" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="H35" s="34" t="s">
+      <c r="H35" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="I35" s="40">
+      <c r="I35" s="36">
         <v>1043</v>
       </c>
     </row>
@@ -1820,7 +1803,7 @@
       <c r="A36" s="4">
         <v>43733</v>
       </c>
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="30" t="s">
         <v>49</v>
       </c>
       <c r="C36" s="24">
@@ -1832,14 +1815,14 @@
       <c r="E36" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F36" s="32" t="s">
+      <c r="F36" s="30" t="s">
         <v>55</v>
       </c>
       <c r="G36" s="24" t="s">
         <v>19</v>
       </c>
       <c r="H36" s="8"/>
-      <c r="I36" s="40">
+      <c r="I36" s="36">
         <v>1043</v>
       </c>
     </row>
@@ -1847,7 +1830,7 @@
       <c r="A37" s="4">
         <v>43733</v>
       </c>
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="30" t="s">
         <v>49</v>
       </c>
       <c r="C37" s="24">
@@ -1859,14 +1842,14 @@
       <c r="E37" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F37" s="32" t="s">
+      <c r="F37" s="30" t="s">
         <v>56</v>
       </c>
       <c r="G37" s="24" t="s">
         <v>19</v>
       </c>
       <c r="H37" s="8"/>
-      <c r="I37" s="40">
+      <c r="I37" s="36">
         <v>1043</v>
       </c>
     </row>
@@ -1892,10 +1875,10 @@
       <c r="G38" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H38" s="36" t="s">
+      <c r="H38" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="I38" s="40">
+      <c r="I38" s="36">
         <v>1043</v>
       </c>
     </row>
@@ -1910,47 +1893,47 @@
       <c r="F39" s="46"/>
       <c r="G39" s="46"/>
       <c r="H39" s="47"/>
-      <c r="I39" s="41"/>
+      <c r="I39" s="37"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="51" t="s">
+      <c r="A40" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="52"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="40"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="36"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="28">
+      <c r="A41" s="26">
         <v>43734</v>
       </c>
-      <c r="B41" s="29" t="s">
+      <c r="B41" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="30">
+      <c r="C41" s="28">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D41" s="30">
+      <c r="D41" s="28">
         <v>0.39583333333333331</v>
       </c>
-      <c r="E41" s="30" t="s">
+      <c r="E41" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="F41" s="29" t="s">
+      <c r="F41" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="G41" s="30" t="s">
+      <c r="G41" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="H41" s="31" t="s">
+      <c r="H41" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I41" s="40">
+      <c r="I41" s="36">
         <v>1043</v>
       </c>
     </row>
@@ -1958,7 +1941,7 @@
       <c r="A42" s="4">
         <v>43734</v>
       </c>
-      <c r="B42" s="32" t="s">
+      <c r="B42" s="30" t="s">
         <v>60</v>
       </c>
       <c r="C42" s="24">
@@ -1970,16 +1953,16 @@
       <c r="E42" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F42" s="32" t="s">
+      <c r="F42" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="G42" s="24" t="s">
+      <c r="G42" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H42" s="8" t="s">
+      <c r="H42" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I42" s="40">
+      <c r="I42" s="36">
         <v>1043</v>
       </c>
     </row>
@@ -1987,7 +1970,7 @@
       <c r="A43" s="4">
         <v>43734</v>
       </c>
-      <c r="B43" s="32" t="s">
+      <c r="B43" s="30" t="s">
         <v>60</v>
       </c>
       <c r="C43" s="24">
@@ -1999,22 +1982,22 @@
       <c r="E43" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="F43" s="33" t="s">
+      <c r="F43" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="G43" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I43" s="40"/>
+      <c r="G43" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I43" s="36"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>43734</v>
       </c>
-      <c r="B44" s="32" t="s">
+      <c r="B44" s="30" t="s">
         <v>60</v>
       </c>
       <c r="C44" s="24">
@@ -2026,16 +2009,16 @@
       <c r="E44" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="F44" s="38" t="s">
+      <c r="F44" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="G44" s="24" t="s">
+      <c r="G44" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="H44" s="34" t="s">
+      <c r="H44" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="I44" s="40">
+      <c r="I44" s="36">
         <v>1043</v>
       </c>
     </row>
@@ -2043,7 +2026,7 @@
       <c r="A45" s="4">
         <v>43734</v>
       </c>
-      <c r="B45" s="32" t="s">
+      <c r="B45" s="30" t="s">
         <v>60</v>
       </c>
       <c r="C45" s="24">
@@ -2055,22 +2038,22 @@
       <c r="E45" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F45" s="38" t="s">
+      <c r="F45" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="G45" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="H45" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I45" s="40"/>
+      <c r="G45" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I45" s="36"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>43734</v>
       </c>
-      <c r="B46" s="32" t="s">
+      <c r="B46" s="30" t="s">
         <v>60</v>
       </c>
       <c r="C46" s="24">
@@ -2082,16 +2065,16 @@
       <c r="E46" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="F46" s="33" t="s">
+      <c r="F46" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="G46" s="24" t="s">
+      <c r="G46" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="H46" s="34" t="s">
+      <c r="H46" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="I46" s="40">
+      <c r="I46" s="36">
         <v>1043</v>
       </c>
     </row>
@@ -2099,7 +2082,7 @@
       <c r="A47" s="4">
         <v>43734</v>
       </c>
-      <c r="B47" s="32" t="s">
+      <c r="B47" s="30" t="s">
         <v>60</v>
       </c>
       <c r="C47" s="24">
@@ -2111,16 +2094,16 @@
       <c r="E47" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="F47" s="38" t="s">
+      <c r="F47" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="G47" s="24" t="s">
+      <c r="G47" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="H47" s="34" t="s">
+      <c r="H47" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="I47" s="40">
+      <c r="I47" s="36">
         <v>1043</v>
       </c>
     </row>
@@ -2128,7 +2111,7 @@
       <c r="A48" s="4">
         <v>43734</v>
       </c>
-      <c r="B48" s="32" t="s">
+      <c r="B48" s="30" t="s">
         <v>60</v>
       </c>
       <c r="C48" s="24">
@@ -2140,16 +2123,16 @@
       <c r="E48" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="F48" s="38" t="s">
+      <c r="F48" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="G48" s="24" t="s">
+      <c r="G48" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="H48" s="34" t="s">
+      <c r="H48" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="I48" s="40">
+      <c r="I48" s="36">
         <v>1043</v>
       </c>
     </row>
@@ -2169,14 +2152,14 @@
       <c r="E49" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="F49" s="39" t="s">
+      <c r="F49" s="35" t="s">
         <v>68</v>
       </c>
       <c r="G49" s="20" t="s">
         <v>69</v>
       </c>
       <c r="H49" s="20"/>
-      <c r="I49" s="40" t="s">
+      <c r="I49" s="36" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2205,16 +2188,16 @@
       <c r="I51" s="10"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="54" t="s">
+      <c r="A52" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="B52" s="55"/>
-      <c r="C52" s="55"/>
-      <c r="D52" s="55"/>
-      <c r="E52" s="55"/>
-      <c r="F52" s="55"/>
-      <c r="G52" s="55"/>
-      <c r="H52" s="56"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="41"/>
       <c r="I52" s="17"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -2240,7 +2223,7 @@
         <v>18</v>
       </c>
       <c r="H53" s="8"/>
-      <c r="I53" s="40">
+      <c r="I53" s="36">
         <v>1043</v>
       </c>
     </row>
@@ -2263,11 +2246,11 @@
       <c r="F54" t="s">
         <v>75</v>
       </c>
-      <c r="G54" s="25" t="s">
+      <c r="G54" s="53" t="s">
         <v>21</v>
       </c>
       <c r="H54" s="8"/>
-      <c r="I54" s="40">
+      <c r="I54" s="36">
         <v>1043</v>
       </c>
     </row>
@@ -2290,7 +2273,7 @@
       <c r="F55" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="54" t="s">
         <v>12</v>
       </c>
       <c r="H55" s="6" t="s">
@@ -2317,11 +2300,11 @@
       <c r="F56" t="s">
         <v>76</v>
       </c>
-      <c r="G56" s="25" t="s">
+      <c r="G56" s="53" t="s">
         <v>21</v>
       </c>
       <c r="H56" s="6"/>
-      <c r="I56" s="40">
+      <c r="I56" s="36">
         <v>1043</v>
       </c>
     </row>
@@ -2341,14 +2324,14 @@
       <c r="E57" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F57" s="32" t="s">
+      <c r="F57" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="G57" s="24" t="s">
+      <c r="G57" s="33" t="s">
         <v>78</v>
       </c>
       <c r="H57" s="6"/>
-      <c r="I57" s="40">
+      <c r="I57" s="36">
         <v>1043</v>
       </c>
     </row>
@@ -2402,21 +2385,21 @@
       <c r="H59" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="I59" s="40">
+      <c r="I59" s="36">
         <v>1043</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="54" t="s">
+      <c r="A60" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="B60" s="55"/>
-      <c r="C60" s="55"/>
-      <c r="D60" s="55"/>
-      <c r="E60" s="55"/>
-      <c r="F60" s="55"/>
-      <c r="G60" s="55"/>
-      <c r="H60" s="56"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="40"/>
+      <c r="G60" s="40"/>
+      <c r="H60" s="41"/>
       <c r="I60" s="22"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
@@ -2425,6 +2408,11 @@
   </sheetData>
   <autoFilter ref="A3:H60" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="12">
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A52:H52"/>
     <mergeCell ref="A60:H60"/>
     <mergeCell ref="A18:H18"/>
     <mergeCell ref="A26:H26"/>
@@ -2432,17 +2420,27 @@
     <mergeCell ref="A39:H39"/>
     <mergeCell ref="A40:H40"/>
     <mergeCell ref="A50:H50"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A52:H52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002CFA2B233742F64E8056EBCE33A21C00" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9b5b91389c05eb979bd0038ae0792781">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -2556,33 +2554,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04CD0CE7-FD41-4D9B-9D66-1156C08293BB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0A9C92A-76ED-4D1D-B2EC-9C2252A82F94}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2603,9 +2578,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0A9C92A-76ED-4D1D-B2EC-9C2252A82F94}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04CD0CE7-FD41-4D9B-9D66-1156C08293BB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>